--- a/projects/DGJQ.xlsx
+++ b/projects/DGJQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qingc\Desktop\Projects\alanht520\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B889E-6BFD-457A-8031-408A361B43FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D1E54-2E4C-44C1-8295-1BB39B34681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>大國崛起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,17 +80,11 @@
     <t>小國大業</t>
   </si>
   <si>
-    <t>150萬人口的荷蘭，成為世界經濟中心和海上第一強國</t>
-  </si>
-  <si>
     <t>荷蘭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>荷蘭人通過捕撈和加工鯡魚和海上貿易開始自己的致富之路</t>
-  </si>
-  <si>
-    <t>在與英格蘭的貿易競爭中，荷蘭人通過建造造價低、速度快的船隻以及良好的商業信用而逐漸佔據有利地位</t>
   </si>
   <si>
     <t>1602年，第一間股份公司荷蘭聯合東印度公司成立</t>
@@ -384,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孫中山走訪各國，提出“三民主義”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保路運動引發動亂，武昌地區軍隊被調至四川</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,6 +435,22 @@
   </si>
   <si>
     <t>牛頓等科學家的科學研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在與英格蘭的貿易競爭中，荷蘭逐漸佔據有利地位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150萬人口的荷蘭，成為世界經濟中心和海上第一強國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴黎和會上中國外交失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫中山提出以“民族”、“民權”、“民生”為核心的“三民主義”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +491,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -506,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -515,21 +528,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,437 +838,447 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="A1:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>67</v>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
-        <v>73</v>
+      <c r="D3" s="9"/>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="C5" s="9"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="12"/>
+      <c r="D7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="12"/>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="D19" s="3"/>
+      <c r="E19" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="2" t="s">
+    <row r="20" spans="1:5">
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="12"/>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="12"/>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="12"/>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="12"/>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13"/>
+      <c r="B27" s="6"/>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="6"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="6"/>
+      <c r="D30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12"/>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12"/>
+      <c r="D34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12"/>
+      <c r="D35" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12"/>
+      <c r="D36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="9"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22" s="9"/>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="9"/>
-      <c r="D23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="9"/>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="C25" s="9"/>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="4"/>
-      <c r="D30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="9"/>
-      <c r="E32" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9"/>
-      <c r="D33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="9"/>
-      <c r="D34" s="2" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="12"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="9"/>
-      <c r="D35" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12"/>
+      <c r="D38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="9"/>
-      <c r="E36" s="3" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="12"/>
+      <c r="D39" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="9"/>
-      <c r="E37" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="9"/>
-      <c r="D38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="3" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="12"/>
+      <c r="E40" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9"/>
-      <c r="D39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="9"/>
-      <c r="E40" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/DGJQ.xlsx
+++ b/projects/DGJQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qingc\Desktop\Projects\alanht520\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D1E54-2E4C-44C1-8295-1BB39B34681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A28BFE-BAC8-47E5-9405-4182D017C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,10 +492,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -519,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -532,8 +532,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -541,8 +541,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,6 +550,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -852,7 +853,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -879,7 +880,7 @@
       <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -887,7 +888,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
-      <c r="D3" s="9"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
         <v>71</v>
       </c>
@@ -904,7 +905,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
         <v>66</v>
@@ -928,14 +929,14 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="C8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
@@ -959,8 +960,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3" t="s">
         <v>93</v>
       </c>
@@ -969,15 +970,15 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3" t="s">
         <v>68</v>
       </c>
@@ -986,11 +987,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>94</v>
       </c>
@@ -999,8 +1000,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>72</v>
       </c>
@@ -1009,8 +1010,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1092,7 +1093,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="C22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1101,7 +1102,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
@@ -1110,7 +1111,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="12"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1119,7 +1120,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="C25" s="12"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1128,10 +1129,10 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -1145,8 +1146,6 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="6"/>
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1158,7 +1157,7 @@
       <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
         <v>62</v>
       </c>
@@ -1170,14 +1169,14 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="6"/>
+      <c r="B29" s="9"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="6"/>
+      <c r="B30" s="9"/>
       <c r="D30" s="3" t="s">
         <v>74</v>
       </c>
@@ -1200,14 +1199,14 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="D33" s="3" t="s">
         <v>80</v>
       </c>
@@ -1216,7 +1215,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="D34" s="3" t="s">
         <v>82</v>
       </c>
@@ -1225,13 +1224,13 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="D35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="D36" s="3" t="s">
         <v>97</v>
       </c>
@@ -1240,14 +1239,14 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="D38" s="3" t="s">
         <v>90</v>
       </c>
@@ -1256,7 +1255,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="D39" s="3" t="s">
         <v>87</v>
       </c>
@@ -1265,18 +1264,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="E40" s="3" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C13:C15"/>
   </mergeCells>
